--- a/TareaProgra3/Registros.xlsx
+++ b/TareaProgra3/Registros.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Empleado Folio</t>
   </si>
@@ -24,12 +24,6 @@
   </si>
   <si>
     <t>Completo/Incompleto</t>
-  </si>
-  <si>
-    <t>2314</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>aa</t>
@@ -116,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="justify"/>
@@ -135,15 +129,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -174,27 +166,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>44482.0</v>
+        <v>44488.0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>44488.0</v>
+        <v>44481.0</v>
       </c>
       <c r="D2" t="s" s="2">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>44488.0</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>44481.0</v>
-      </c>
-      <c r="D3" t="s" s="3">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
